--- a/DEPT.xlsx
+++ b/DEPT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\POWER BI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Desktop\POWER BI\PBI-powerbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13E165C-B9FD-4339-994A-5C70AF888FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C38365C-3309-4146-9523-8CF2B3A6C196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BE85347B-DA7D-4F5D-B1AA-B75DD87D83CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Dept Loc</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>mum</t>
+  </si>
+  <si>
+    <t>blore</t>
+  </si>
+  <si>
+    <t>NR peta</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352AF550-758D-4009-9E80-793EC5144735}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,6 +450,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
